--- a/1. Dokumentation/Infomaterial/Vergleich_APPS.xlsx
+++ b/1. Dokumentation/Infomaterial/Vergleich_APPS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ICT_HFTL_BKMI13\1. Dokumentation\Infomaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\ICT_HFTL_BKMI13\1. Dokumentation\Infomaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
-    <t>Photo Quant</t>
-  </si>
-  <si>
     <t>QuanPic</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>jeweiligen Komplementärfarben dar</t>
+  </si>
+  <si>
+    <t>Foto Quant</t>
   </si>
 </sst>
 </file>
@@ -928,19 +928,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +971,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,34 +986,34 @@
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="36"/>
     </row>
@@ -1021,160 +1021,160 @@
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="23"/>
@@ -1182,7 +1182,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="23"/>
@@ -1190,7 +1190,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="23"/>
@@ -1198,41 +1198,41 @@
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="7"/>
@@ -1240,7 +1240,7 @@
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="9"/>
